--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna5-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna5-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +516,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.230855</v>
+        <v>2.900731333333333</v>
       </c>
       <c r="H2">
-        <v>0.692565</v>
+        <v>8.702194</v>
       </c>
       <c r="I2">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775288</v>
       </c>
       <c r="J2">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775289</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,22 +555,22 @@
         <v>19.038761</v>
       </c>
       <c r="O2">
-        <v>0.9446330608455225</v>
+        <v>0.921725411846598</v>
       </c>
       <c r="P2">
-        <v>0.9446330608455226</v>
+        <v>0.9217254118465981</v>
       </c>
       <c r="Q2">
-        <v>1.465064390218333</v>
+        <v>18.40877686018155</v>
       </c>
       <c r="R2">
-        <v>13.185579511965</v>
+        <v>165.678991741634</v>
       </c>
       <c r="S2">
-        <v>0.06024213213719019</v>
+        <v>0.7494083145221192</v>
       </c>
       <c r="T2">
-        <v>0.06024213213719019</v>
+        <v>0.7494083145221194</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +578,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.230855</v>
+        <v>2.900731333333333</v>
       </c>
       <c r="H3">
-        <v>0.692565</v>
+        <v>8.702194</v>
       </c>
       <c r="I3">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775288</v>
       </c>
       <c r="J3">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775289</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +611,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3719673333333333</v>
+        <v>0.5389353333333333</v>
       </c>
       <c r="N3">
-        <v>1.115902</v>
+        <v>1.616806</v>
       </c>
       <c r="O3">
-        <v>0.05536693915447755</v>
+        <v>0.07827458815340194</v>
       </c>
       <c r="P3">
-        <v>0.05536693915447755</v>
+        <v>0.07827458815340194</v>
       </c>
       <c r="Q3">
-        <v>0.08587051873666667</v>
+        <v>1.563306608040444</v>
       </c>
       <c r="R3">
-        <v>0.7728346686299999</v>
+        <v>14.069759472364</v>
       </c>
       <c r="S3">
-        <v>0.003530918621025538</v>
+        <v>0.06364110875540953</v>
       </c>
       <c r="T3">
-        <v>0.003530918621025538</v>
+        <v>0.06364110875540954</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +640,13 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +655,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.900731333333333</v>
+        <v>0.6669870000000001</v>
       </c>
       <c r="H4">
-        <v>8.702194</v>
+        <v>2.000961</v>
       </c>
       <c r="I4">
-        <v>0.8013189515350044</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="J4">
-        <v>0.8013189515350045</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +679,22 @@
         <v>19.038761</v>
       </c>
       <c r="O4">
-        <v>0.9446330608455225</v>
+        <v>0.921725411846598</v>
       </c>
       <c r="P4">
-        <v>0.9446330608455226</v>
+        <v>0.9217254118465981</v>
       </c>
       <c r="Q4">
-        <v>18.40877686018155</v>
+        <v>4.232868694369</v>
       </c>
       <c r="R4">
-        <v>165.678991741634</v>
+        <v>38.09581824932101</v>
       </c>
       <c r="S4">
-        <v>0.7569523739020361</v>
+        <v>0.1723170973244787</v>
       </c>
       <c r="T4">
-        <v>0.7569523739020363</v>
+        <v>0.1723170973244787</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +702,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,16 +717,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.900731333333333</v>
+        <v>0.6669870000000001</v>
       </c>
       <c r="H5">
-        <v>8.702194</v>
+        <v>2.000961</v>
       </c>
       <c r="I5">
-        <v>0.8013189515350044</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="J5">
-        <v>0.8013189515350045</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,152 +735,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3719673333333333</v>
+        <v>0.5389353333333333</v>
       </c>
       <c r="N5">
-        <v>1.115902</v>
+        <v>1.616806</v>
       </c>
       <c r="O5">
-        <v>0.05536693915447755</v>
+        <v>0.07827458815340194</v>
       </c>
       <c r="P5">
-        <v>0.05536693915447755</v>
+        <v>0.07827458815340194</v>
       </c>
       <c r="Q5">
-        <v>1.078977298776444</v>
+        <v>0.3594628611740001</v>
       </c>
       <c r="R5">
-        <v>9.710795688988</v>
+        <v>3.235165750566</v>
       </c>
       <c r="S5">
-        <v>0.04436657763296833</v>
+        <v>0.0146334793979924</v>
       </c>
       <c r="T5">
-        <v>0.04436657763296834</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.4883596666666667</v>
-      </c>
-      <c r="H6">
-        <v>1.465079</v>
-      </c>
-      <c r="I6">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="J6">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>6.346253666666667</v>
-      </c>
-      <c r="N6">
-        <v>19.038761</v>
-      </c>
-      <c r="O6">
-        <v>0.9446330608455225</v>
-      </c>
-      <c r="P6">
-        <v>0.9446330608455226</v>
-      </c>
-      <c r="Q6">
-        <v>3.099254325235445</v>
-      </c>
-      <c r="R6">
-        <v>27.89328892711901</v>
-      </c>
-      <c r="S6">
-        <v>0.1274385548062961</v>
-      </c>
-      <c r="T6">
-        <v>0.1274385548062962</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.4883596666666667</v>
-      </c>
-      <c r="H7">
-        <v>1.465079</v>
-      </c>
-      <c r="I7">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="J7">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.3719673333333333</v>
-      </c>
-      <c r="N7">
-        <v>1.115902</v>
-      </c>
-      <c r="O7">
-        <v>0.05536693915447755</v>
-      </c>
-      <c r="P7">
-        <v>0.05536693915447755</v>
-      </c>
-      <c r="Q7">
-        <v>0.1816538429175556</v>
-      </c>
-      <c r="R7">
-        <v>1.634884586258</v>
-      </c>
-      <c r="S7">
-        <v>0.007469442900483674</v>
-      </c>
-      <c r="T7">
-        <v>0.007469442900483674</v>
+        <v>0.0146334793979924</v>
       </c>
     </row>
   </sheetData>
